--- a/BulkPDF/Example.xlsx
+++ b/BulkPDF/Example.xlsx
@@ -5,116 +5,133 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Table2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Adress</t>
-  </si>
-  <si>
-    <t>Checkbox Value</t>
-  </si>
-  <si>
-    <t>Radio button value</t>
-  </si>
-  <si>
-    <t>Combobox Value</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>Bernd</t>
-  </si>
-  <si>
-    <t>Weit-Weit-Weg</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Kuchen</t>
-  </si>
-  <si>
-    <t>Mustermann</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Mustermann Straße</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Musterfrau</t>
-  </si>
-  <si>
-    <t>Marie</t>
-  </si>
-  <si>
-    <t>Keks</t>
-  </si>
-  <si>
-    <t>Klein</t>
-  </si>
-  <si>
-    <t>Berthold</t>
-  </si>
-  <si>
-    <t>Kleiner Weg</t>
-  </si>
-  <si>
-    <t>Groß</t>
-  </si>
-  <si>
-    <t>Anna-Lisa</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Number of pieces</t>
-  </si>
-  <si>
-    <t>Piece price</t>
-  </si>
-  <si>
-    <t>Cheese</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Shoe</t>
-  </si>
-  <si>
-    <t>Cake</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkbox Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio button value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combobox Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weit-Weit-Weg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustermann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustermann Straße</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musterfrau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berthold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleiner Weg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna-Lisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛋糕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">печенье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">торт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">饼干</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piece price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cake</t>
   </si>
 </sst>
 </file>
@@ -122,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -153,6 +170,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,6 +280,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,12 +310,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -351,25 +381,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,10 +505,47 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
@@ -489,104 +554,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" s="8" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="n">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>24</v>
-      </c>
-    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="7" t="n">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="11" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="7" t="n">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="10" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="7" t="n">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="n">
         <v>3.5</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="10" t="n">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
